--- a/padam_excel/TS 4.5 Padam Input.xlsx
+++ b/padam_excel/TS 4.5 Padam Input.xlsx
@@ -2928,10 +2928,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1235"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10200" topLeftCell="J1" activePane="topRight"/>
-      <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A1218" workbookViewId="0">
+      <pane xSplit="10200" topLeftCell="J1"/>
+      <selection activeCell="A1234" sqref="A1234"/>
+      <selection pane="topRight" activeCell="J1233" sqref="J1233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
